--- a/excel/13.xlsx
+++ b/excel/13.xlsx
@@ -832,7 +832,11 @@
           <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -887,7 +891,11 @@
           <t>环境工程专业导论刘音 (12-19周) 环境工程2021-3-4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
@@ -932,11 +940,15 @@
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>安全工程专业导论刘义鑫 (12-19周) 安全工程2021-2</t>
+          <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1571,7 +1583,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1660,7 +1672,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1733,7 +1745,11 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>轨道交通运营张嘉敏 (7-14周) 交通运输2019-1-2</t>
@@ -1966,7 +1982,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2008,7 +2024,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2409,11 +2425,7 @@
           <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>海洋环境学赵艳云 (12-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
@@ -3013,7 +3025,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3438,11 +3450,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
@@ -3517,7 +3525,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>当代中国经济专题*孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3826,7 +3834,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3949,7 +3957,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -3967,7 +3975,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -4059,11 +4067,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4176,7 +4180,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5535,11 +5539,7 @@
           <t>数字摄影测量学解斐斐,刘健辰 (12-19周) 测绘工程2019-1-3</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>采矿学冯帆 (12-13周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t>遥感数字图像处理孔冬贤 (3-13周) 地理信息科学2019-3</t>
@@ -5692,15 +5692,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -6319,7 +6315,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6336,7 +6332,7 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6357,7 +6353,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -7411,11 +7407,7 @@
           <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
@@ -7424,11 +7416,7 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14单周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -8259,7 +8247,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -8281,14 +8269,10 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
@@ -8310,11 +8294,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -8352,7 +8332,11 @@
           <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -8380,9 +8364,17 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>

--- a/excel/13.xlsx
+++ b/excel/13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK88"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,8 +662,10 @@
       <c r="J2" t="n">
         <v>506</v>
       </c>
-      <c r="K2" t="n">
-        <v>708</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0708</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -765,8 +767,10 @@
           <t>0708</t>
         </is>
       </c>
-      <c r="AF2" t="n">
-        <v>910</v>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0910</t>
+        </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -803,7 +807,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -813,14 +817,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,7 +833,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -842,7 +846,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -852,7 +856,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -928,7 +932,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -958,7 +962,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -967,7 +971,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>机器人技术高魁东,张明辉 (13单周) 机械设计制造及其自动化2018-1-5</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
@@ -1002,7 +1010,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1036,7 +1044,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1053,7 +1061,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1063,19 +1071,19 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1116,7 +1124,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1140,7 +1148,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1176,7 +1184,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
@@ -1218,11 +1226,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>采矿工程导论樊克恭 (12-19周) 采矿工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>采煤概论尹延春 (12-14周) 工程力学2018-1-3</t>
@@ -1316,7 +1320,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1326,14 +1330,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1346,7 +1350,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1366,7 +1370,11 @@
           <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>计算机程序设计（C语言）张涛 (13周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>产业经济学刘鹏 (11-19周) 投资学2018-1-2</t>
@@ -1376,7 +1384,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用张蕾 (13周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1384,11 +1392,23 @@
           <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>港口与自贸区物流董兴林 (13周) 物流管理2020-1-2</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>中级财务会计（II）郝敏 (13单周) 会计学(辅修) 2019版</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>中级财务会计（II）郝敏 (13周) 会计学(辅修) 2019版</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
           <t>基础会计李芳 (4-14周) 会计辅修 2020版</t>
@@ -1402,12 +1422,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1446,7 +1466,11 @@
           <t>电路基础仉毅 (11-18周) 机械电子工程2020-1-2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>普通化学马林政 (13周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>专业英语李瑛 (7-15周) 能源与动力工程2019-1-3</t>
@@ -1459,7 +1483,11 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>应用化学专业新生研讨课赵沛文 (13周) 应用化学2021-1-2</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
@@ -1483,13 +1511,21 @@
           <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-1-2</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>普通化学马林政 (13周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>C++语言程序设计施剑 (12-19周) 测绘工程2021-4-5</t>
@@ -1630,11 +1666,7 @@
           <t>钻井工程范坤坤 (12-16周) 采矿工程2019-1-4</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -1643,7 +1675,11 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>测井地质学杨思通,张涛 (13周) 资源勘查工程2018-1-3</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
@@ -1652,12 +1688,12 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>现代物流学于灏 (13周) 物流管理2021-1-2</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>软件工程谢俊 (12-13周) 资源勘查工程2019-1-3</t>
@@ -1767,7 +1803,11 @@
           <t>海洋生物学乔延路 (7-15周) 环境工程（海洋环境方向）2018</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>生产计划与管理 田莹 (13周) 机械设计制造及其自动化2018-1-3</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
@@ -1809,7 +1849,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1826,7 +1866,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1844,7 +1884,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1856,17 +1896,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1877,7 +1917,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1894,15 +1934,19 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr"/>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>会计学(B)刘英姿 (13周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
@@ -1917,12 +1961,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr"/>
@@ -1948,7 +1992,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1964,7 +2008,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1972,7 +2016,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2055,7 +2099,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2097,7 +2141,11 @@
           <t>化工专业英语赵国明 (6-14周) 化学工程与工艺2018-1-3</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (13周) 机械电子工程2018-4-5</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
@@ -2120,7 +2168,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2150,7 +2198,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
@@ -2375,7 +2427,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2409,7 +2461,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2458,7 +2510,11 @@
           <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>制图基础（A）戚美 (9-15周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2472,7 +2528,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2582,7 +2638,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2651,7 +2707,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2661,7 +2717,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2715,7 +2771,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2797,11 +2853,7 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -2812,7 +2864,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2833,7 +2885,11 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (13周) 机械电子工程2018-4-5</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
@@ -2846,7 +2902,11 @@
           <t>几何量公差与检测孙静 (8-15周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (13周) 机械电子工程2018-1-3</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>计算机程序设计基础（C语言）高峰 (13-18周) 机械电子工程2020-5-6</t>
@@ -2876,7 +2936,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2893,12 +2953,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2911,19 +2971,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (13-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (13-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2941,7 +3001,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (12-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (12-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -2962,22 +3022,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -3038,10 +3098,14 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>生产计划与管理 田莹 (13周) 机械设计制造及其自动化2018-1-3</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
@@ -3072,7 +3136,11 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>弹性力学基础刘学生 (10-13周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>无机化学张广心 (13-18周) 新能源材料与器件2021-1</t>
@@ -3086,12 +3154,12 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械张同环 (13周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>无机化学邱鹏 (13-18周) 金属材料工程2021-3-4</t>
@@ -3149,12 +3217,16 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>运筹学（B）辛宝贵 (13周) 电子商务2019-1-2</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3168,7 +3240,11 @@
           <t>普通化学（B）黄仁和 (12-19周) 机械设计制造及其自动化2021-1</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (13周) 机械电子工程2018-1-3</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>机械工程控制基础陈广庆 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -3230,10 +3306,14 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>破碎磨矿李琳 (13周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3245,18 +3325,18 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>生物工程学科前沿王博 (12-19周) 生物工程2020-1-2</t>
+          <t>生物工程学科前沿王博 (12-18周) 生物工程2020-1-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -3267,7 +3347,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3324,11 +3404,7 @@
           <t>计算机程序设计（C语言）张涛 (12-14周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
@@ -3343,7 +3419,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3371,11 +3447,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -3386,12 +3458,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -3442,11 +3514,7 @@
           <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-3-4</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -3489,7 +3557,11 @@
           <t>电工电子技术（A)孟秀芝 (12-19周) 机械设计制造及其自动化2020-3-4</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>政府及非营利组织会计崔树德 (13-14周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -3520,7 +3592,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3550,7 +3622,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3562,7 +3634,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-19周) 物流管理2019-1-2</t>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3609,7 +3681,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3642,7 +3714,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3664,7 +3736,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
+          <t>工程力学姜兰越,李晓宇 (12-18周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3802,7 +3874,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -3820,7 +3892,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3839,7 +3911,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -3884,7 +3956,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3984,7 +4056,7 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -3992,17 +4064,17 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4034,7 +4106,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4059,21 +4131,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
@@ -4086,12 +4154,16 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>数学物理方程王德营 (13周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -4153,7 +4225,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4241,7 +4313,11 @@
           <t>岩土工程勘察徐东晶 (5-14周) 地质工程2018-1</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张建飞 (13周) 英语2020-1-5</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4330,7 +4406,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4347,11 +4423,7 @@
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -4398,7 +4470,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4441,7 +4513,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4483,7 +4555,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4560,7 +4632,11 @@
           <t>计算机图形学常乐 (12-19周) 测绘工程2020-3-4</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
@@ -4732,7 +4808,11 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -4742,7 +4822,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -4850,7 +4930,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5047,11 +5127,7 @@
           <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -5119,7 +5195,11 @@
           <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械吴蓬 (13周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -5128,7 +5208,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-4</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-4</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -5137,7 +5217,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-5</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -5178,11 +5258,7 @@
           <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -5230,11 +5306,7 @@
           <t>专业英语张军建,郑雪 (12-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -5259,12 +5331,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5285,17 +5357,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -5311,12 +5383,12 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5403,11 +5475,7 @@
           <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
@@ -5528,7 +5596,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
+          <t>空间数据库张蕾 (12-18周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5603,7 +5671,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5616,7 +5684,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5629,7 +5697,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5642,7 +5710,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5715,7 +5783,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -5725,11 +5793,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
@@ -5797,7 +5861,11 @@
           <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>运筹学（B）李洪伟 (13周) 工商管理2019-1</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -5832,7 +5900,11 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>工程力学姜兰越,李晓宇 (13周) 能源与动力工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
@@ -5906,7 +5978,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -5963,11 +6035,7 @@
           <t>计算机语言张俊明 (11-14周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -6050,7 +6118,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6065,11 +6133,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -6110,7 +6174,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -6118,7 +6182,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6131,7 +6195,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6144,7 +6208,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6157,7 +6221,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -6212,7 +6276,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6237,11 +6301,7 @@
           <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
@@ -6303,7 +6363,11 @@
           <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理魏丽萍 (13周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -6402,7 +6466,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6423,12 +6487,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6440,7 +6504,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -6492,7 +6556,11 @@
           <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6512,7 +6580,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用张蕾 (13周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6585,7 +6653,11 @@
           <t>水文地球化学任加国 (9-19周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张建飞 (13周) 英语2020-1-5</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -6675,7 +6747,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -6692,7 +6764,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6799,7 +6871,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6845,12 +6917,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6874,7 +6946,11 @@
           <t>数值分析与计算方法周康 (12-19周) 工程力学2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -6885,12 +6961,12 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="U69" t="inlineStr"/>
@@ -7036,11 +7112,7 @@
           <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
           <t>专业英语韩文学,孟凡雪 (4-13周) 资源勘查工程2019-3</t>
@@ -7115,11 +7187,7 @@
           <t>水文地质与工程地质学高宗军,张彧齐 (9-14周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -7202,17 +7270,13 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
           <t>生物工程设备孟龙 (7-16周) 生物工程2018-2</t>
@@ -7392,19 +7456,19 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化学软件应用技术高猛 (12-19周) 应用化学2018-1-3</t>
+          <t>化学软件应用技术高猛 (12-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -7423,7 +7487,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -7431,7 +7495,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -7456,7 +7520,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7473,7 +7537,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7496,14 +7560,14 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7525,7 +7589,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -7686,16 +7750,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -7704,14 +7784,38 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -7719,16 +7823,8 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -7739,17 +7835,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -7757,52 +7853,68 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+          <t>室内设计（一）胡永胜 (12-14周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+          <t>室内设计（一）刘伟 (12-14周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr"/>
@@ -7824,88 +7936,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-514室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-15周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>室内设计（一）胡永胜 (12-14周) 环境设计2019-1</t>
-        </is>
-      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-15周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>室内设计（一）刘伟 (12-14周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
@@ -7925,15 +7985,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-524室</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -7942,13 +8006,29 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -7974,19 +8054,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -7997,33 +8069,41 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -8043,7 +8123,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8055,20 +8135,20 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -8078,21 +8158,9 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (13-16周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -8112,34 +8180,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -8147,8 +8223,16 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -8169,60 +8253,64 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8242,26 +8330,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -8269,39 +8373,51 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
@@ -8313,111 +8429,6 @@
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/13.xlsx
+++ b/excel/13.xlsx
@@ -893,7 +893,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>流体力学辛林 (9-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1389,7 +1389,11 @@
           <t>国际会计准则(双语)张月玲 (10-17周) 会计学(辅修)2019</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>EXCEL财务应用赵桐 (13周) 会计学(辅修)2019</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
@@ -1923,16 +1927,8 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
@@ -2081,11 +2077,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2119,11 +2111,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2140,11 +2128,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2165,11 +2149,7 @@
           <t>工程材料姜兰越,刘培坤 (9,12-18周) 智能制造工程2020-1-2</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2206,11 +2186,7 @@
           <t>机械振动与噪声控制牟鸣飞 (9-16周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>计算机程序设计基础（C语言）高峰 (11-16周) 机械设计制造及其自动化2021-5</t>
@@ -2221,11 +2197,7 @@
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2264,16 +2236,8 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2319,7 +2283,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2346,7 +2310,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2404,7 +2368,11 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>遥感图像解译黄珏 (9-15周) 遥感科学与技术2020-1-3</t>
@@ -2677,11 +2645,7 @@
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2730,11 +2694,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
@@ -2760,11 +2720,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -3143,7 +3099,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3388,16 +3344,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
@@ -3422,11 +3370,7 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
@@ -3456,11 +3400,7 @@
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3560,17 +3500,9 @@
           <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -3588,23 +3520,15 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -4135,7 +4059,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4320,7 +4244,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4575,7 +4499,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>完井工程范坤坤 (13-15周) 采矿工程2019-1-4</t>
+          <t>完井工程于海洋 (13-15周) 采矿工程2019-1-4</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4599,7 +4523,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>完井工程范坤坤 (13-15单周) 采矿工程2019-1-4</t>
+          <t>完井工程于海洋 (13-15单周) 采矿工程2019-1-4</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr"/>
@@ -4633,7 +4557,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4670,7 +4594,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -5289,7 +5213,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5323,12 +5247,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5362,7 +5286,11 @@
           <t>激光遥感宿殿鹏 (7-14周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
@@ -5428,7 +5356,11 @@
           <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr">
         <is>
           <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
@@ -6266,7 +6198,11 @@
           <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (9-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -6528,7 +6464,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7084,7 +7020,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7626,49 +7562,93 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)谢鲲 (12-16周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>金属材料学姚树玉 (10-16周) 金属材料工程2019-4</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+          <t>中国画孟鸣 (13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (12-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
@@ -7687,93 +7667,57 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr">
         <is>
-          <t>中国画孟鸣 (13周) 环境设计2019-1-2</t>
+          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>中国画孟鸣 (12-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -7792,55 +7736,39 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
-          <t>形态构成设计（一）李妍 (12-15周) 环境设计2021-2</t>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）李妍 (12-13周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -7861,12 +7789,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-531室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -7874,28 +7806,36 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
@@ -7914,16 +7854,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-520室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -7931,18 +7871,18 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -7951,16 +7891,8 @@
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>构成设计Ⅰ宋美音 (12-14周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
@@ -7979,40 +7911,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-533室</t>
+          <t>J14-535室</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -8036,13 +7968,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-535室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -8050,10 +7986,14 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -8062,12 +8002,24 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -8093,30 +8045,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -8127,29 +8071,29 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
-        </is>
-      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>字体与版式设计宋美音 (13-15周) 视觉传达设计2020-2 字体与版式设计李丽 (13-15周) 视觉传达设计2020-1</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -8170,24 +8114,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -8196,27 +8140,27 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
@@ -8239,21 +8183,13 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-532室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -8265,27 +8201,27 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>形态构成设计（一）许士朋 (12-15周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr">
         <is>
-          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>形态构成设计（一）许士朋 (12-13周) 环境设计2021-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
@@ -8308,13 +8244,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-532室</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+          <t>J14-538室</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (13-16周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -8326,29 +8278,29 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -8369,29 +8321,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-538室</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (13-16周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-2</t>
-        </is>
-      </c>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -8403,29 +8339,33 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>设计色彩李宗源 (12-16周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -8446,49 +8386,61 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>传统工艺产品设计宋玉凤 (12-17周) 产品设计2019-1-2</t>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr"/>
@@ -8511,64 +8463,60 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>流体力学与流体机械孟昭胜 (12-15周) 采矿工程（宋振骐班）2020</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr"/>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -8588,7 +8536,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -8596,52 +8544,40 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
@@ -8661,7 +8597,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -8670,34 +8606,26 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
